--- a/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/ExpertiseBased/WithFigures/Personnel_7.xlsx
+++ b/Results/Scenario5-AllMembersHaveZeroExpertiseInAllSkills/ExpertiseBased/WithFigures/Personnel_7.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Personnel_7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="13">
   <si>
     <t>sprint</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>idle time</t>
+  </si>
+  <si>
+    <t>sprint time</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +380,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -535,8 +547,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -660,7 +674,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$155</c:f>
+              <c:f>Personnel_7!$D$2:$D$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -1131,7 +1145,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$G$2:$G$155</c:f>
+              <c:f>Personnel_7!$H$2:$H$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -1613,7 +1627,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$155</c:f>
+              <c:f>Personnel_7!$D$2:$D$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -2084,7 +2098,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$H$2:$H$155</c:f>
+              <c:f>Personnel_7!$I$2:$I$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -2573,7 +2587,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$155</c:f>
+              <c:f>Personnel_7!$D$2:$D$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -3044,7 +3058,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$I$2:$I$155</c:f>
+              <c:f>Personnel_7!$J$2:$J$155</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="154"/>
@@ -3524,11 +3538,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1733664544"/>
-        <c:axId val="1733655296"/>
+        <c:axId val="2082258656"/>
+        <c:axId val="2082260832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1733664544"/>
+        <c:axId val="2082258656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3557,7 +3571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1733655296"/>
+        <c:crossAx val="2082260832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3565,7 +3579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1733655296"/>
+        <c:axId val="2082260832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3609,7 +3623,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1733664544"/>
+        <c:crossAx val="2082258656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3644,16 +3658,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>129428</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>377078</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3940,64 +3954,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2/375</f>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2">
-        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0.1</v>
@@ -4005,4446 +4032,5212 @@
       <c r="I2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>9037</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">B3/375</f>
+        <v>24.098666666666666</v>
+      </c>
+      <c r="D3">
         <v>24</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>0.54999999999999905</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.54999999999999905</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>9045</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>24.12</v>
+      </c>
+      <c r="D4">
         <v>24</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.54999999999999905</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.54999999999999905</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>24</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
         <v>30048</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>80.128</v>
+      </c>
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>0.54999999999999905</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>24</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>35</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333338E-2</v>
+      </c>
+      <c r="D6">
         <v>80</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.54999999999999905</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>24037</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>64.098666666666674</v>
+      </c>
+      <c r="D7">
         <v>144</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>1.75</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.1</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D8">
         <v>160</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.75</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.1</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
         <v>12039</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>32.103999999999999</v>
+      </c>
+      <c r="D9">
         <v>192</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
         <v>2.35</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.1</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
         <v>12044</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>32.117333333333335</v>
+      </c>
+      <c r="D10">
         <v>192</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>17</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2.35</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.1</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>54</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11">
         <v>21047</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>56.12533333333333</v>
+      </c>
+      <c r="D11">
         <v>216</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>2.35</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.54999999999999905</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>57</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
       <c r="B12">
         <v>24</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D12">
         <v>240</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>2.35</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.54999999999999905</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13">
         <v>21029</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>56.077333333333335</v>
+      </c>
+      <c r="D13">
         <v>296</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>30</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <v>3.4</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.6</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>52</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D14">
         <v>320</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>33</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3.4</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.6</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
         <v>24029</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>64.077333333333328</v>
+      </c>
+      <c r="D15">
         <v>384</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>33</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.6</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
         <v>24035</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>64.093333333333334</v>
+      </c>
+      <c r="D16">
         <v>384</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>34</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>9</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.6</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
       <c r="B17">
         <v>30038</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>80.101333333333329</v>
+      </c>
+      <c r="D17">
         <v>400</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>34</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.9</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D18">
         <v>560</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>46</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>9</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.9</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
       <c r="B19">
         <v>12007</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>32.018666666666668</v>
+      </c>
+      <c r="D19">
         <v>592</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>46</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
         <v>5.5</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.9</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>22</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666668E-2</v>
+      </c>
+      <c r="D20">
         <v>640</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>47</v>
       </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
         <v>9</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5.5</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.9</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>61</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21">
         <v>9764</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>26.037333333333333</v>
+      </c>
+      <c r="D21">
         <v>666</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>47</v>
       </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.9</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>37</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D22">
         <v>720</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>58</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>9</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>7</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.9</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
       <c r="B23">
         <v>1522</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0586666666666664</v>
+      </c>
+      <c r="D23">
         <v>724</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>58</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
         <v>7.15</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3.69999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
       <c r="B24">
         <v>1528</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0746666666666664</v>
+      </c>
+      <c r="D24">
         <v>724</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>57</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>4</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>9</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>7.15</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2.0499999999999998</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3.69999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25">
         <v>8655</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>23.08</v>
+      </c>
+      <c r="D25">
         <v>743</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>57</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>7.75</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2.65</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D26">
         <v>880</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>74</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>7</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>9</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>7.75</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>2.65</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27">
         <v>10526</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>28.069333333333333</v>
+      </c>
+      <c r="D27">
         <v>908</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>74</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>2.65</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5.35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28">
         <v>24</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D28">
         <v>960</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>83</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>3</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>9</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.65</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5.35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29">
         <v>3025</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0666666666666664</v>
+      </c>
+      <c r="D29">
         <v>968</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>83</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>3</v>
       </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
         <v>9.25</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.65</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5.8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30">
         <v>3030</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>8.08</v>
+      </c>
+      <c r="D30">
         <v>968</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>84</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>9.25</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.65</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>5.8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
       <c r="B31">
         <v>9033</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>24.088000000000001</v>
+      </c>
+      <c r="D31">
         <v>984</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>84</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>6</v>
       </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31">
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
         <v>10.15</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.65</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>6.6999999999999904</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>13</v>
       </c>
       <c r="B32">
         <v>9040</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>24.106666666666666</v>
+      </c>
+      <c r="D32">
         <v>984</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>86</v>
       </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32" t="s">
         <v>9</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>10.15</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2.65</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>6.6999999999999904</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
       <c r="B33">
         <v>18793</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>50.114666666666665</v>
+      </c>
+      <c r="D33">
         <v>1010</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>86</v>
       </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
         <v>11.65</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>2.65</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6.6999999999999904</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
       <c r="B34">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4666666666666665E-2</v>
+      </c>
+      <c r="D34">
         <v>1040</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>97</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>9</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>11.65</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>2.65</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>6.6999999999999904</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
       <c r="B35">
         <v>3014</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0373333333333328</v>
+      </c>
+      <c r="D35">
         <v>1048</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>97</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
         <v>11.65</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2.65</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>7.1499999999999897</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14</v>
       </c>
       <c r="B36">
         <v>3018</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>8.048</v>
+      </c>
+      <c r="D36">
         <v>1048</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>110</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>6</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>9</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>11.65</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>2.65</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7.1499999999999897</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
       <c r="B37">
         <v>9021</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>24.056000000000001</v>
+      </c>
+      <c r="D37">
         <v>1064</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>110</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
         <v>11.65</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>2.65</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>8.0499999999999901</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>14</v>
       </c>
       <c r="B38">
         <v>9022</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>24.058666666666667</v>
+      </c>
+      <c r="D38">
         <v>1064</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>96</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>9</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>11.65</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2.65</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>8.0499999999999901</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
       <c r="B39">
         <v>18024</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>48.064</v>
+      </c>
+      <c r="D39">
         <v>1088</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>96</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
         <v>12.7</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>3.7</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>9.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D40">
         <v>1120</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>125</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>12.7</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>3.7</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>15</v>
       </c>
       <c r="B41">
         <v>3006</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>8.016</v>
+      </c>
+      <c r="D41">
         <v>1128</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>125</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
         <v>13.15</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>3.7</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>9.1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
       <c r="B42">
         <v>3010</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0266666666666673</v>
+      </c>
+      <c r="D42">
         <v>1128</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>138</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>9</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>13.15</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>3.7</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>9.1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
       <c r="B43">
         <v>6762</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>18.032</v>
+      </c>
+      <c r="D43">
         <v>1138</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>138</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
         <v>13.6</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>9.5499999999999901</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
       <c r="B44">
         <v>6764</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>18.037333333333333</v>
+      </c>
+      <c r="D44">
         <v>1138</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>123</v>
       </c>
-      <c r="E44">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" t="s">
         <v>9</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>13.6</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>9.5499999999999901</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
       <c r="B45">
         <v>16517</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>44.045333333333332</v>
+      </c>
+      <c r="D45">
         <v>1164</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>123</v>
       </c>
-      <c r="E45">
-        <v>10</v>
-      </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45">
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <v>13.6</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>11.049999999999899</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
       <c r="B46">
         <v>16520</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>44.053333333333335</v>
+      </c>
+      <c r="D46">
         <v>1164</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>140</v>
       </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46" t="s">
         <v>9</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>13.6</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>11.049999999999899</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15</v>
       </c>
       <c r="B47">
         <v>29274</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>78.063999999999993</v>
+      </c>
+      <c r="D47">
         <v>1198</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>140</v>
       </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
         <v>15.1</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>5.65</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>12.549999999999899</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>3.7333333333333336E-2</v>
+      </c>
+      <c r="D48">
         <v>1200</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>150</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>1</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>15.1</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>5.65</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>12.549999999999899</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49">
         <v>766</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0426666666666669</v>
+      </c>
+      <c r="D49">
         <v>1202</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>150</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
         <v>15.1</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>5.8</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>12.7</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
       <c r="B50">
         <v>772</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0586666666666669</v>
+      </c>
+      <c r="D50">
         <v>1202</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>149</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>3</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>9</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>15.1</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5.8</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>12.7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16</v>
       </c>
       <c r="B51">
         <v>3774</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>10.064</v>
+      </c>
+      <c r="D51">
         <v>1210</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>149</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
         <v>15.549999999999899</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.8</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>13.149999999999901</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52">
         <v>3779</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>10.077333333333334</v>
+      </c>
+      <c r="D52">
         <v>1210</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>155</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>6</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>9</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>15.549999999999899</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5.8</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>13.149999999999901</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
       <c r="B53">
         <v>9782</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>26.085333333333335</v>
+      </c>
+      <c r="D53">
         <v>1226</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>155</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
         <v>16.45</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>5.8</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>13.149999999999901</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
       <c r="B54">
         <v>9787</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>26.098666666666666</v>
+      </c>
+      <c r="D54">
         <v>1226</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>143</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>8</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>9</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>16.45</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>5.8</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>13.149999999999901</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
       <c r="B55">
         <v>17664</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>47.103999999999999</v>
+      </c>
+      <c r="D55">
         <v>1247</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>143</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
         <v>16.45</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>5.8</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
       <c r="B56">
         <v>17669</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>47.117333333333335</v>
+      </c>
+      <c r="D56">
         <v>1247</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>151</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>6</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>9</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>16.45</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>5.8</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
       <c r="B57">
         <v>23673</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>63.128</v>
+      </c>
+      <c r="D57">
         <v>1263</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>151</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>6</v>
       </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
         <v>17.349999999999898</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>6.7</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
       <c r="B58">
         <v>23675</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>63.133333333333333</v>
+      </c>
+      <c r="D58">
         <v>1263</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>161</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>6</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>9</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>17.349999999999898</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>6.7</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16</v>
       </c>
       <c r="B59">
         <v>29676</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>79.135999999999996</v>
+      </c>
+      <c r="D59">
         <v>1279</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>161</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>6</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
         <v>18.249999999999901</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>7.6</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>17</v>
       </c>
       <c r="B60">
         <v>7</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8666666666666668E-2</v>
+      </c>
+      <c r="D60">
         <v>1280</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>163</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>7</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>9</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>18.249999999999901</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>7.6</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>14.3499999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>17</v>
       </c>
       <c r="B61">
         <v>6759</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>18.024000000000001</v>
+      </c>
+      <c r="D61">
         <v>1298</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>163</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>7</v>
       </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
         <v>19.299999999999901</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>7.6</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>15.399999999999901</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>17</v>
       </c>
       <c r="B62">
         <v>6764</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>18.037333333333333</v>
+      </c>
+      <c r="D62">
         <v>1298</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>175</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>4</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>9</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>19.299999999999901</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>7.6</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>15.399999999999901</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>17</v>
       </c>
       <c r="B63">
         <v>10516</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>28.042666666666666</v>
+      </c>
+      <c r="D63">
         <v>1308</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>175</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>4</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
         <v>19.299999999999901</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>17</v>
       </c>
       <c r="B64">
         <v>10520</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>28.053333333333335</v>
+      </c>
+      <c r="D64">
         <v>1308</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>171</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>6</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>9</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>19.299999999999901</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>17</v>
       </c>
       <c r="B65">
         <v>16522</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>44.058666666666667</v>
+      </c>
+      <c r="D65">
         <v>1324</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>171</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>6</v>
       </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65">
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
         <v>19.299999999999901</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>9.1</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>17</v>
       </c>
       <c r="B66">
         <v>16527</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>44.072000000000003</v>
+      </c>
+      <c r="D66">
         <v>1324</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>174</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>7</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>9</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>19.299999999999901</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>9.1</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>17</v>
       </c>
       <c r="B67">
         <v>23278</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" si="1">B67/375</f>
+        <v>62.074666666666666</v>
+      </c>
+      <c r="D67">
         <v>1342</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>174</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>7</v>
       </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67">
         <v>20.349999999999898</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>9.1</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>17</v>
       </c>
       <c r="B68">
         <v>23284</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>62.090666666666664</v>
+      </c>
+      <c r="D68">
         <v>1342</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>168</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>6</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>9</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>20.349999999999898</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>9.1</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>15.999999999999901</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
       <c r="B69">
         <v>29286</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>78.096000000000004</v>
+      </c>
+      <c r="D69">
         <v>1358</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>168</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>6</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
         <v>20.349999999999898</v>
       </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
       <c r="I69">
+        <v>10</v>
+      </c>
+      <c r="J69">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666666E-3</v>
+      </c>
+      <c r="D70">
         <v>1360</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>166</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>7</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>9</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>20.349999999999898</v>
       </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
       <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>18</v>
       </c>
       <c r="B71">
         <v>5252</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>14.005333333333333</v>
+      </c>
+      <c r="D71">
         <v>1374</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>166</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>7</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71">
         <v>21.4</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>11.05</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>18</v>
       </c>
       <c r="B72">
         <v>5257</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>14.018666666666666</v>
+      </c>
+      <c r="D72">
         <v>1374</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>142</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>9</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>9</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>21.4</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>11.05</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>18</v>
       </c>
       <c r="B73">
         <v>12008</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>32.021333333333331</v>
+      </c>
+      <c r="D73">
         <v>1392</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>142</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>9</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73">
         <v>22.75</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>11.05</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>18.25</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
       <c r="B74">
         <v>12009</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>32.024000000000001</v>
+      </c>
+      <c r="D74">
         <v>1392</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>172</v>
       </c>
-      <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74" t="s">
         <v>9</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>22.75</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>11.05</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>18.25</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
       <c r="B75">
         <v>21759</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>58.024000000000001</v>
+      </c>
+      <c r="D75">
         <v>1418</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>172</v>
       </c>
-      <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75">
+      <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75">
         <v>22.75</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>12.55</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>19.75</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D76">
         <v>1440</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>180</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>1</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>9</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>22.75</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>12.55</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>19.75</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
       <c r="B77">
         <v>383</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0213333333333334</v>
+      </c>
+      <c r="D77">
         <v>1441</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>180</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>1</v>
       </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77">
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77">
         <v>22.9</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>12.55</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>19.75</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19</v>
       </c>
       <c r="B78">
         <v>388</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0346666666666666</v>
+      </c>
+      <c r="D78">
         <v>1441</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>178</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>3</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>9</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>22.9</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>12.55</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>19.75</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>19</v>
       </c>
       <c r="B79">
         <v>2639</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0373333333333337</v>
+      </c>
+      <c r="D79">
         <v>1447</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>178</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>3</v>
       </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
         <v>23.349999999999898</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>13</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>20.2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>19</v>
       </c>
       <c r="B80">
         <v>2644</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0506666666666664</v>
+      </c>
+      <c r="D80">
         <v>1447</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>181</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>8</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>9</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>23.349999999999898</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>13</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>20.2</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19</v>
       </c>
       <c r="B81">
         <v>7146</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>19.056000000000001</v>
+      </c>
+      <c r="D81">
         <v>1459</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>181</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>8</v>
       </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81">
         <v>24.549999999999901</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>13</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>20.2</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20</v>
       </c>
       <c r="B82">
         <v>11</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>2.9333333333333333E-2</v>
+      </c>
+      <c r="D82">
         <v>1520</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>204</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>1</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>9</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>24.549999999999901</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>13</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>20.2</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20</v>
       </c>
       <c r="B83">
         <v>387</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>1.032</v>
+      </c>
+      <c r="D83">
         <v>1521</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>204</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>1</v>
       </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83">
         <v>24.6999999999999</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>13</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>20.349999999999898</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
       <c r="B84">
         <v>392</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0453333333333332</v>
+      </c>
+      <c r="D84">
         <v>1521</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>206</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>4</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>9</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>24.6999999999999</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>13</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>20.349999999999898</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20</v>
       </c>
       <c r="B85">
         <v>2644</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0506666666666664</v>
+      </c>
+      <c r="D85">
         <v>1527</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>206</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>4</v>
       </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85">
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85">
         <v>25.299999999999901</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>13</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>20.349999999999898</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
       <c r="B86">
         <v>2649</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0640000000000001</v>
+      </c>
+      <c r="D86">
         <v>1527</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>193</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>4</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>9</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>25.299999999999901</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>13</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>20.349999999999898</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
       <c r="B87">
         <v>5650</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>15.066666666666666</v>
+      </c>
+      <c r="D87">
         <v>1535</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>193</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
+      <c r="G87" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87">
         <v>25.299999999999901</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>13.6</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>20.95</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20</v>
       </c>
       <c r="B88">
         <v>5655</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>15.08</v>
+      </c>
+      <c r="D88">
         <v>1535</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>191</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>8</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>9</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>25.299999999999901</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>13.6</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>20.95</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
       <c r="B89">
         <v>10157</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>27.085333333333335</v>
+      </c>
+      <c r="D89">
         <v>1547</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>191</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>8</v>
       </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89">
+      <c r="G89" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89">
         <v>25.299999999999901</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>13.6</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>22.15</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20</v>
       </c>
       <c r="B90">
         <v>10167</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>27.111999999999998</v>
+      </c>
+      <c r="D90">
         <v>1547</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>212</v>
       </c>
-      <c r="E90">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90" t="s">
         <v>9</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>25.299999999999901</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>13.6</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>22.15</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20</v>
       </c>
       <c r="B91">
         <v>16168</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>43.114666666666665</v>
+      </c>
+      <c r="D91">
         <v>1563</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>212</v>
       </c>
-      <c r="E91">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91">
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91">
         <v>26.799999999999901</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>13.6</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>22.15</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>21</v>
       </c>
       <c r="B92">
         <v>24</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D92">
         <v>1600</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>237</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>3</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>9</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>26.799999999999901</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>13.6</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>22.15</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>21</v>
       </c>
       <c r="B93">
         <v>1526</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0693333333333337</v>
+      </c>
+      <c r="D93">
         <v>1604</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>237</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>3</v>
       </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93">
+      <c r="G93" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93">
         <v>27.249999999999901</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>13.6</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>22.15</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>21</v>
       </c>
       <c r="B94">
         <v>1531</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0826666666666664</v>
+      </c>
+      <c r="D94">
         <v>1604</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>217</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>4</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>9</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>27.249999999999901</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>13.6</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>22.15</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>21</v>
       </c>
       <c r="B95">
         <v>3785</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>10.093333333333334</v>
+      </c>
+      <c r="D95">
         <v>1610</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>217</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>4</v>
       </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95">
+      <c r="G95" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95">
         <v>27.849999999999898</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>13.6</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>22.75</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>21</v>
       </c>
       <c r="B96">
         <v>3794</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>10.117333333333333</v>
+      </c>
+      <c r="D96">
         <v>1610</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>235</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>7</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>9</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>27.849999999999898</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>13.6</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>22.75</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>21</v>
       </c>
       <c r="B97">
         <v>7919</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>21.117333333333335</v>
+      </c>
+      <c r="D97">
         <v>1621</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>235</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>7</v>
       </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97">
+      <c r="G97" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97">
         <v>28.9</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>13.6</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>22.75</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>21</v>
       </c>
       <c r="B98">
         <v>7926</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>21.135999999999999</v>
+      </c>
+      <c r="D98">
         <v>1621</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>229</v>
       </c>
-      <c r="E98">
-        <v>10</v>
-      </c>
-      <c r="F98" t="s">
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
         <v>9</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>28.9</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>13.6</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>22.75</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
       <c r="B99">
         <v>13928</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>37.141333333333336</v>
+      </c>
+      <c r="D99">
         <v>1637</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>229</v>
       </c>
-      <c r="E99">
-        <v>10</v>
-      </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99">
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99">
         <v>30</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>13.6</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>22.75</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>21</v>
       </c>
       <c r="B100">
         <v>13932</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>37.152000000000001</v>
+      </c>
+      <c r="D100">
         <v>1637</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>223</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>9</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>9</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>30</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>13.6</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>22.75</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>21</v>
       </c>
       <c r="B101">
         <v>19183</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>51.154666666666664</v>
+      </c>
+      <c r="D101">
         <v>1651</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>223</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>9</v>
       </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101">
+      <c r="G101" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101">
         <v>30</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>13.6</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>24.1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>22</v>
       </c>
       <c r="B102">
         <v>24</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D102">
         <v>1680</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>275</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>3</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>9</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>30</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>13.6</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>24.1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>22</v>
       </c>
       <c r="B103">
         <v>1525</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="D103">
         <v>1684</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>275</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>3</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103">
+      <c r="G103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103">
         <v>30</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>13.6</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>24.1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>22</v>
       </c>
       <c r="B104">
         <v>1531</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0826666666666664</v>
+      </c>
+      <c r="D104">
         <v>1684</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>246</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>5</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>9</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>30</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>13.6</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>24.1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22</v>
       </c>
       <c r="B105">
         <v>4532</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>12.085333333333333</v>
+      </c>
+      <c r="D105">
         <v>1692</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>246</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>5</v>
       </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105">
+      <c r="G105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105">
         <v>30</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>13.6</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>24.1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>22</v>
       </c>
       <c r="B106">
         <v>4538</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>12.101333333333333</v>
+      </c>
+      <c r="D106">
         <v>1692</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>249</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>9</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>9</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>30</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>13.6</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>24.1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22</v>
       </c>
       <c r="B107">
         <v>9790</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>26.106666666666666</v>
+      </c>
+      <c r="D107">
         <v>1706</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>249</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>9</v>
       </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107">
+      <c r="G107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107">
         <v>30</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>13.6</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>24.1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22</v>
       </c>
       <c r="B108">
         <v>9793</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>26.114666666666668</v>
+      </c>
+      <c r="D108">
         <v>1706</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>264</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>7</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>9</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>30</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>13.6</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>24.1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22</v>
       </c>
       <c r="B109">
         <v>15042</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>40.112000000000002</v>
+      </c>
+      <c r="D109">
         <v>1720</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>264</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>7</v>
       </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109">
+      <c r="G109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109">
         <v>30</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>14.65</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>24.1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>22</v>
       </c>
       <c r="B110">
         <v>15093</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>40.247999999999998</v>
+      </c>
+      <c r="D110">
         <v>1720</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>259</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>9</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>9</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>30</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>14.65</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>24.1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22</v>
       </c>
       <c r="B111">
         <v>20345</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>54.25333333333333</v>
+      </c>
+      <c r="D111">
         <v>1734</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>259</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>9</v>
       </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111">
+      <c r="G111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111">
         <v>30</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>14.65</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>25.45</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>23</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="D112">
         <v>1760</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>289</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>2</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>9</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>30</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>14.65</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>25.45</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23</v>
       </c>
       <c r="B113">
         <v>1144</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0506666666666669</v>
+      </c>
+      <c r="D113">
         <v>1763</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>289</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>2</v>
       </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113">
+      <c r="G113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113">
         <v>30</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>14.65</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>25.45</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>23</v>
       </c>
       <c r="B114">
         <v>1145</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0533333333333332</v>
+      </c>
+      <c r="D114">
         <v>1763</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>306</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>2</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>9</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>30</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>14.65</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>25.45</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>23</v>
       </c>
       <c r="B115">
         <v>2271</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>6.056</v>
+      </c>
+      <c r="D115">
         <v>1766</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>306</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>2</v>
       </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115">
+      <c r="G115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115">
         <v>30</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>14.65</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>25.45</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>23</v>
       </c>
       <c r="B116">
         <v>2288</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>6.1013333333333337</v>
+      </c>
+      <c r="D116">
         <v>1766</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>295</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>7</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>9</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>30</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>14.65</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>25.45</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>23</v>
       </c>
       <c r="B117">
         <v>6414</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>17.103999999999999</v>
+      </c>
+      <c r="D117">
         <v>1777</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>295</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>7</v>
       </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117">
+      <c r="G117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117">
         <v>30</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>14.65</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>25.45</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23</v>
       </c>
       <c r="B118">
         <v>6420</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>17.12</v>
+      </c>
+      <c r="D118">
         <v>1777</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>296</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>9</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>9</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>30</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>14.65</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>25.45</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>23</v>
       </c>
       <c r="B119">
         <v>11671</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>31.122666666666667</v>
+      </c>
+      <c r="D119">
         <v>1791</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>296</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>9</v>
       </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119">
+      <c r="G119" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119">
         <v>30</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>14.65</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>25.45</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>23</v>
       </c>
       <c r="B120">
         <v>11676</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>31.135999999999999</v>
+      </c>
+      <c r="D120">
         <v>1791</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>288</v>
       </c>
-      <c r="E120">
-        <v>10</v>
-      </c>
-      <c r="F120" t="s">
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120" t="s">
         <v>9</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>30</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>14.65</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>25.45</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>23</v>
       </c>
       <c r="B121">
         <v>17676</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>47.136000000000003</v>
+      </c>
+      <c r="D121">
         <v>1807</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>288</v>
       </c>
-      <c r="E121">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121">
+      <c r="F121">
+        <v>10</v>
+      </c>
+      <c r="G121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121">
         <v>30</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>14.65</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>25.45</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>23</v>
       </c>
       <c r="B122">
         <v>17829</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>47.543999999999997</v>
+      </c>
+      <c r="D122">
         <v>1807</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>284</v>
       </c>
-      <c r="E122">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122" t="s">
         <v>9</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>30</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>14.65</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>25.45</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>23</v>
       </c>
       <c r="B123">
         <v>24581</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>65.549333333333337</v>
+      </c>
+      <c r="D123">
         <v>1825</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>284</v>
       </c>
-      <c r="E123">
-        <v>10</v>
-      </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123">
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123">
         <v>30</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>16.149999999999999</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>26.95</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>24</v>
       </c>
       <c r="B124">
         <v>7</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8666666666666668E-2</v>
+      </c>
+      <c r="D124">
         <v>1840</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>342</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>1</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>9</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>30</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>16.149999999999999</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>26.95</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>24</v>
       </c>
       <c r="B125">
         <v>384</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>1.024</v>
+      </c>
+      <c r="D125">
         <v>1841</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>342</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>1</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125">
+      <c r="G125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125">
         <v>30</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>16.149999999999999</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>27.1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>24</v>
       </c>
       <c r="B126">
         <v>389</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0373333333333334</v>
+      </c>
+      <c r="D126">
         <v>1841</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>353</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>3</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>9</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>30</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>16.149999999999999</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>27.1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>24</v>
       </c>
       <c r="B127">
         <v>1891</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0426666666666664</v>
+      </c>
+      <c r="D127">
         <v>1845</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>353</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>3</v>
       </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127">
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127">
         <v>30</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>16.149999999999999</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>27.1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>24</v>
       </c>
       <c r="B128">
         <v>1891</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>5.0426666666666664</v>
+      </c>
+      <c r="D128">
         <v>1845</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>328</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>5</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>9</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>30</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>16.149999999999999</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>27.1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>24</v>
       </c>
       <c r="B129">
         <v>4892</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
+        <f t="shared" si="1"/>
+        <v>13.045333333333334</v>
+      </c>
+      <c r="D129">
         <v>1853</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>328</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>5</v>
       </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129">
+      <c r="G129" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129">
         <v>30</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>16.149999999999999</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>27.1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>24</v>
       </c>
       <c r="B130">
         <v>4893</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
+        <f t="shared" si="1"/>
+        <v>13.048</v>
+      </c>
+      <c r="D130">
         <v>1853</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>332</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>5</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>9</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>30</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>16.149999999999999</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>27.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>24</v>
       </c>
       <c r="B131">
         <v>7894</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
+        <f t="shared" ref="C131:C155" si="2">B131/375</f>
+        <v>21.050666666666668</v>
+      </c>
+      <c r="D131">
         <v>1861</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>332</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>5</v>
       </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131">
+      <c r="G131" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131">
         <v>30</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>16.149999999999999</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>27.1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>24</v>
       </c>
       <c r="B132">
         <v>7898</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
+        <f t="shared" si="2"/>
+        <v>21.061333333333334</v>
+      </c>
+      <c r="D132">
         <v>1861</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>336</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>3</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>9</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>30</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>16.149999999999999</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>27.1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>24</v>
       </c>
       <c r="B133">
         <v>10149</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
+        <f t="shared" si="2"/>
+        <v>27.064</v>
+      </c>
+      <c r="D133">
         <v>1867</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>336</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>3</v>
       </c>
-      <c r="F133" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133">
+      <c r="G133" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133">
         <v>30</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>16.600000000000001</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>27.1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>24</v>
       </c>
       <c r="B134">
         <v>10151</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
+        <f t="shared" si="2"/>
+        <v>27.069333333333333</v>
+      </c>
+      <c r="D134">
         <v>1867</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>365</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>3</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>9</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>30</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>16.600000000000001</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>27.1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24</v>
       </c>
       <c r="B135">
         <v>12403</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
+        <f t="shared" si="2"/>
+        <v>33.074666666666666</v>
+      </c>
+      <c r="D135">
         <v>1873</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>365</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>3</v>
       </c>
-      <c r="F135" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135">
+      <c r="G135" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135">
         <v>30</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>17.05</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>27.1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>24</v>
       </c>
       <c r="B136">
         <v>12406</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
+        <f t="shared" si="2"/>
+        <v>33.082666666666668</v>
+      </c>
+      <c r="D136">
         <v>1873</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>349</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>6</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>9</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>30</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>17.05</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>27.1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>24</v>
       </c>
       <c r="B137">
         <v>15782</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
+        <f t="shared" si="2"/>
+        <v>42.085333333333331</v>
+      </c>
+      <c r="D137">
         <v>1882</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>349</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>6</v>
       </c>
-      <c r="F137" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137">
+      <c r="G137" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137">
         <v>30</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>17.05</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>24</v>
       </c>
       <c r="B138">
         <v>15782</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
+        <f t="shared" si="2"/>
+        <v>42.085333333333331</v>
+      </c>
+      <c r="D138">
         <v>1882</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>345</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>6</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>9</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>30</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>17.05</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>24</v>
       </c>
       <c r="B139">
         <v>19907</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
+        <f t="shared" si="2"/>
+        <v>53.085333333333331</v>
+      </c>
+      <c r="D139">
         <v>1893</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>345</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>6</v>
       </c>
-      <c r="F139" t="s">
-        <v>10</v>
-      </c>
-      <c r="G139">
+      <c r="G139" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139">
         <v>30</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>17.95</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>28.9</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>24</v>
       </c>
       <c r="B140">
         <v>19907</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
+        <f t="shared" si="2"/>
+        <v>53.085333333333331</v>
+      </c>
+      <c r="D140">
         <v>1893</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>330</v>
       </c>
-      <c r="E140">
-        <v>10</v>
-      </c>
-      <c r="F140" t="s">
+      <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140" t="s">
         <v>9</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>30</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>17.95</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>28.9</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>24</v>
       </c>
       <c r="B141">
         <v>26658</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
+        <f t="shared" si="2"/>
+        <v>71.087999999999994</v>
+      </c>
+      <c r="D141">
         <v>1911</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>330</v>
       </c>
-      <c r="E141">
-        <v>10</v>
-      </c>
-      <c r="F141" t="s">
-        <v>10</v>
-      </c>
-      <c r="G141">
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141">
         <v>30</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>19.45</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>25</v>
       </c>
       <c r="B142">
         <v>24</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D142">
         <v>1920</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>379</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>1</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>9</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>30</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>19.45</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>25</v>
       </c>
       <c r="B143">
         <v>401</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
+        <f t="shared" si="2"/>
+        <v>1.0693333333333332</v>
+      </c>
+      <c r="D143">
         <v>1921</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>379</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>1</v>
       </c>
-      <c r="F143" t="s">
-        <v>10</v>
-      </c>
-      <c r="G143">
+      <c r="G143" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143">
         <v>30</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>19.45</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>25</v>
       </c>
       <c r="B144">
         <v>405</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="D144">
         <v>1921</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>384</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>1</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>9</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>30</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>19.45</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>25</v>
       </c>
       <c r="B145">
         <v>781</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0826666666666669</v>
+      </c>
+      <c r="D145">
         <v>1922</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>384</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>1</v>
       </c>
-      <c r="F145" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145">
+      <c r="G145" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145">
         <v>30</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>19.45</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>25</v>
       </c>
       <c r="B146">
         <v>786</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="D146">
         <v>1922</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>388</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>1</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>9</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>30</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>19.45</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>25</v>
       </c>
       <c r="B147">
         <v>1163</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1013333333333333</v>
+      </c>
+      <c r="D147">
         <v>1923</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>388</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>1</v>
       </c>
-      <c r="F147" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147">
+      <c r="G147" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147">
         <v>30</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>19.45</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>25</v>
       </c>
       <c r="B148">
         <v>1167</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
+        <f t="shared" si="2"/>
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="D148">
         <v>1923</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>386</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>5</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>9</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>30</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>19.45</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>25</v>
       </c>
       <c r="B149">
         <v>4169</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
+        <f t="shared" si="2"/>
+        <v>11.117333333333333</v>
+      </c>
+      <c r="D149">
         <v>1931</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>386</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>5</v>
       </c>
-      <c r="F149" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149">
+      <c r="G149" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149">
         <v>30</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>19.45</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>25</v>
       </c>
       <c r="B150">
         <v>4169</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
+        <f t="shared" si="2"/>
+        <v>11.117333333333333</v>
+      </c>
+      <c r="D150">
         <v>1931</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>382</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>7</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>9</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>30</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>19.45</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>25</v>
       </c>
       <c r="B151">
         <v>8295</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
+        <f t="shared" si="2"/>
+        <v>22.12</v>
+      </c>
+      <c r="D151">
         <v>1942</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>382</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>7</v>
       </c>
-      <c r="F151" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151">
+      <c r="G151" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151">
         <v>30</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>19.45</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>25</v>
       </c>
       <c r="B152">
         <v>8301</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
+        <f t="shared" si="2"/>
+        <v>22.135999999999999</v>
+      </c>
+      <c r="D152">
         <v>1942</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>378</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>8</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>9</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>30</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>19.45</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>25</v>
       </c>
       <c r="B153">
         <v>12802</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
+        <f t="shared" si="2"/>
+        <v>34.138666666666666</v>
+      </c>
+      <c r="D153">
         <v>1954</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>378</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>8</v>
       </c>
-      <c r="F153" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153">
+      <c r="G153" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153">
         <v>30</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>19.45</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>25</v>
       </c>
       <c r="B154">
         <v>12808</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
+        <f t="shared" si="2"/>
+        <v>34.154666666666664</v>
+      </c>
+      <c r="D154">
         <v>1954</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>393</v>
       </c>
-      <c r="E154">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
+      <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154" t="s">
         <v>9</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>30</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>19.45</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>25</v>
       </c>
       <c r="B155">
         <v>18810</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
+        <f t="shared" si="2"/>
+        <v>50.16</v>
+      </c>
+      <c r="D155">
         <v>1970</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>393</v>
       </c>
-      <c r="E155">
-        <v>10</v>
-      </c>
-      <c r="F155" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155">
+      <c r="F155">
+        <v>10</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155">
         <v>30</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>19.45</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>